--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>2666.032328360962</v>
+        <v>8182.508839125514</v>
       </c>
       <c r="R2">
-        <v>23994.29095524866</v>
+        <v>73642.57955212962</v>
       </c>
       <c r="S2">
-        <v>0.03627290972095431</v>
+        <v>0.07098148315374395</v>
       </c>
       <c r="T2">
-        <v>0.03627290972095432</v>
+        <v>0.07098148315374393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>9431.365394110739</v>
+        <v>17491.28368663972</v>
       </c>
       <c r="R3">
-        <v>84882.28854699664</v>
+        <v>157421.5531797574</v>
       </c>
       <c r="S3">
-        <v>0.1283191737199344</v>
+        <v>0.151733078784338</v>
       </c>
       <c r="T3">
-        <v>0.1283191737199344</v>
+        <v>0.1517330787843379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>3688.2542675236</v>
+        <v>11257.29316141918</v>
       </c>
       <c r="R4">
-        <v>33194.2884077124</v>
+        <v>101315.6384527726</v>
       </c>
       <c r="S4">
-        <v>0.05018082963609685</v>
+        <v>0.09765456788427126</v>
       </c>
       <c r="T4">
-        <v>0.05018082963609685</v>
+        <v>0.09765456788427125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H5">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>980.3913273622782</v>
+        <v>1632.574294353757</v>
       </c>
       <c r="R5">
-        <v>8823.521946260504</v>
+        <v>14693.16864918381</v>
       </c>
       <c r="S5">
-        <v>0.0133387902803419</v>
+        <v>0.01416222665324872</v>
       </c>
       <c r="T5">
-        <v>0.0133387902803419</v>
+        <v>0.01416222665324872</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H6">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>2768.071952684936</v>
+        <v>6194.12396261914</v>
       </c>
       <c r="R6">
-        <v>24912.64757416442</v>
+        <v>55747.11566357226</v>
       </c>
       <c r="S6">
-        <v>0.03766121774771372</v>
+        <v>0.05373267714695688</v>
       </c>
       <c r="T6">
-        <v>0.03766121774771372</v>
+        <v>0.05373267714695687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H7">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>2729.31942267534</v>
+        <v>7894.854583842078</v>
       </c>
       <c r="R7">
-        <v>24563.87480407806</v>
+        <v>71053.69125457871</v>
       </c>
       <c r="S7">
-        <v>0.03713396719356879</v>
+        <v>0.06848614510071642</v>
       </c>
       <c r="T7">
-        <v>0.03713396719356879</v>
+        <v>0.06848614510071641</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>5561.992072472353</v>
+        <v>9204.587372729437</v>
       </c>
       <c r="R8">
-        <v>50057.92865225118</v>
+        <v>82841.28635456492</v>
       </c>
       <c r="S8">
-        <v>0.07567411473869337</v>
+        <v>0.07984779196454671</v>
       </c>
       <c r="T8">
-        <v>0.07567411473869338</v>
+        <v>0.07984779196454671</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>19676.1228273942</v>
@@ -1013,10 +1013,10 @@
         <v>177085.1054465478</v>
       </c>
       <c r="S9">
-        <v>0.2677050159460208</v>
+        <v>0.1706860827727429</v>
       </c>
       <c r="T9">
-        <v>0.2677050159460208</v>
+        <v>0.1706860827727429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>7694.595740270085</v>
+        <v>12663.44351371167</v>
       </c>
       <c r="R10">
-        <v>69251.36166243076</v>
+        <v>113970.991623405</v>
       </c>
       <c r="S10">
-        <v>0.104689419425625</v>
+        <v>0.1098526161241492</v>
       </c>
       <c r="T10">
-        <v>0.104689419425625</v>
+        <v>0.1098526161241492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>2045.334834353648</v>
+        <v>1836.499419713092</v>
       </c>
       <c r="R11">
-        <v>18408.01350918283</v>
+        <v>16528.49477741783</v>
       </c>
       <c r="S11">
-        <v>0.02782796180166503</v>
+        <v>0.01593123272887989</v>
       </c>
       <c r="T11">
-        <v>0.02782796180166503</v>
+        <v>0.01593123272887989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>5774.871554664124</v>
+        <v>6967.833012147192</v>
       </c>
       <c r="R12">
-        <v>51973.84399197711</v>
+        <v>62710.49710932472</v>
       </c>
       <c r="S12">
-        <v>0.07857046305256878</v>
+        <v>0.06044443474413461</v>
       </c>
       <c r="T12">
-        <v>0.07857046305256878</v>
+        <v>0.06044443474413461</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>5694.024348721153</v>
+        <v>8881.002176801096</v>
       </c>
       <c r="R13">
-        <v>51246.21913849038</v>
+        <v>79929.01959120986</v>
       </c>
       <c r="S13">
-        <v>0.07747049011857075</v>
+        <v>0.07704076082224449</v>
       </c>
       <c r="T13">
-        <v>0.07747049011857075</v>
+        <v>0.07704076082224449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H14">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>4.754062513639999</v>
+        <v>7.116507963041779</v>
       </c>
       <c r="R14">
-        <v>42.78656262275999</v>
+        <v>64.04857166737601</v>
       </c>
       <c r="S14">
-        <v>6.468176643268716E-05</v>
+        <v>6.173415758217748E-05</v>
       </c>
       <c r="T14">
-        <v>6.468176643268716E-05</v>
+        <v>6.173415758217748E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H15">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>16.81798836256</v>
+        <v>15.21255425287111</v>
       </c>
       <c r="R15">
-        <v>151.36189526304</v>
+        <v>136.91298827584</v>
       </c>
       <c r="S15">
-        <v>0.0002288184457006346</v>
+        <v>0.0001319655969404353</v>
       </c>
       <c r="T15">
-        <v>0.0002288184457006346</v>
+        <v>0.0001319655969404353</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H16">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>6.576886246831999</v>
+        <v>9.790715537326223</v>
       </c>
       <c r="R16">
-        <v>59.191976221488</v>
+        <v>88.11643983593601</v>
       </c>
       <c r="S16">
-        <v>8.948233618119257E-05</v>
+        <v>8.493232621427787E-05</v>
       </c>
       <c r="T16">
-        <v>8.948233618119258E-05</v>
+        <v>8.493232621427787E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H17">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>1.748231485616</v>
+        <v>1.419885782520889</v>
       </c>
       <c r="R17">
-        <v>15.734083370544</v>
+        <v>12.778972042688</v>
       </c>
       <c r="S17">
-        <v>2.378569913593834E-05</v>
+        <v>1.231720010742063E-05</v>
       </c>
       <c r="T17">
-        <v>2.378569913593834E-05</v>
+        <v>1.231720010742063E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H18">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>4.936019329296</v>
+        <v>5.387165888935111</v>
       </c>
       <c r="R18">
-        <v>44.424173963664</v>
+        <v>48.484493000416</v>
       </c>
       <c r="S18">
-        <v>6.715739400748858E-05</v>
+        <v>4.673249150229314E-05</v>
       </c>
       <c r="T18">
-        <v>6.715739400748858E-05</v>
+        <v>4.673249150229314E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H19">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>4.866915909856</v>
+        <v>6.866328728460443</v>
       </c>
       <c r="R19">
-        <v>43.802243188704</v>
+        <v>61.796958556144</v>
       </c>
       <c r="S19">
-        <v>6.621720207204518E-05</v>
+        <v>5.956390717683243E-05</v>
       </c>
       <c r="T19">
-        <v>6.621720207204519E-05</v>
+        <v>5.956390717683243E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H20">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>538.7895570531193</v>
+        <v>488.280159883299</v>
       </c>
       <c r="R20">
-        <v>4849.106013478074</v>
+        <v>4394.52143894969</v>
       </c>
       <c r="S20">
-        <v>0.007330543127207989</v>
+        <v>0.004235724106687047</v>
       </c>
       <c r="T20">
-        <v>0.00733054312720799</v>
+        <v>0.004235724106687047</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H21">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>1906.023842637755</v>
+        <v>1043.768722159956</v>
       </c>
       <c r="R21">
-        <v>17154.2145837398</v>
+        <v>9393.918499439602</v>
       </c>
       <c r="S21">
-        <v>0.02593255529369</v>
+        <v>0.009054466475384796</v>
       </c>
       <c r="T21">
-        <v>0.02593255529369</v>
+        <v>0.009054466475384796</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H22">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>745.3746385438676</v>
+        <v>671.7637600863711</v>
       </c>
       <c r="R22">
-        <v>6708.37174689481</v>
+        <v>6045.873840777341</v>
       </c>
       <c r="S22">
-        <v>0.01014125248391589</v>
+        <v>0.005827404400941952</v>
       </c>
       <c r="T22">
-        <v>0.01014125248391589</v>
+        <v>0.005827404400941952</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H23">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>198.1313592446144</v>
+        <v>97.42166530352445</v>
       </c>
       <c r="R23">
-        <v>1783.18223320153</v>
+        <v>876.7949877317202</v>
       </c>
       <c r="S23">
-        <v>0.002695691582700427</v>
+        <v>0.000845111741460806</v>
       </c>
       <c r="T23">
-        <v>0.002695691582700427</v>
+        <v>0.0008451117414608062</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H24">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>559.4111689542699</v>
+        <v>369.6259788126156</v>
       </c>
       <c r="R24">
-        <v>5034.70052058843</v>
+        <v>3326.63380931354</v>
       </c>
       <c r="S24">
-        <v>0.00761111206811459</v>
+        <v>0.003206424912469482</v>
       </c>
       <c r="T24">
-        <v>0.00761111206811459</v>
+        <v>0.003206424912469482</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H25">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>551.5795090541088</v>
+        <v>471.1147808385122</v>
       </c>
       <c r="R25">
-        <v>4964.215581486979</v>
+        <v>4240.03302754661</v>
       </c>
       <c r="S25">
-        <v>0.007504557811625731</v>
+        <v>0.004086818179733551</v>
       </c>
       <c r="T25">
-        <v>0.007504557811625732</v>
+        <v>0.004086818179733551</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H26">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I26">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J26">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>18.88638367231833</v>
+        <v>31.10528498151045</v>
       </c>
       <c r="R26">
-        <v>169.977453050865</v>
+        <v>279.947564833594</v>
       </c>
       <c r="S26">
-        <v>0.0002569601585898533</v>
+        <v>0.0002698315767592195</v>
       </c>
       <c r="T26">
-        <v>0.0002569601585898533</v>
+        <v>0.0002698315767592195</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H27">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I27">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J27">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>66.81253767710668</v>
+        <v>66.49199829321778</v>
       </c>
       <c r="R27">
-        <v>601.3128390939601</v>
+        <v>598.42798463896</v>
       </c>
       <c r="S27">
-        <v>0.0009090231658516582</v>
+        <v>0.0005768036123763253</v>
       </c>
       <c r="T27">
-        <v>0.0009090231658516584</v>
+        <v>0.0005768036123763253</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H28">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I28">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J28">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>26.12788466085133</v>
+        <v>42.79388128883155</v>
       </c>
       <c r="R28">
-        <v>235.150961947662</v>
+        <v>385.144931599484</v>
       </c>
       <c r="S28">
-        <v>0.0003554849622117001</v>
+        <v>0.0003712276055556512</v>
       </c>
       <c r="T28">
-        <v>0.0003554849622117002</v>
+        <v>0.0003712276055556512</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H29">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I29">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J29">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>6.945169629267333</v>
+        <v>6.206126956630222</v>
       </c>
       <c r="R29">
-        <v>62.50652666340601</v>
+        <v>55.855142609672</v>
       </c>
       <c r="S29">
-        <v>9.449304431878568E-05</v>
+        <v>5.383680050740083E-05</v>
       </c>
       <c r="T29">
-        <v>9.449304431878569E-05</v>
+        <v>5.383680050740084E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H30">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I30">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J30">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>19.609240433754</v>
+        <v>23.54656681173378</v>
       </c>
       <c r="R30">
-        <v>176.483163903786</v>
+        <v>211.919101305604</v>
       </c>
       <c r="S30">
-        <v>0.0002667950423494426</v>
+        <v>0.0002042613418862143</v>
       </c>
       <c r="T30">
-        <v>0.0002667950423494426</v>
+        <v>0.0002042613418862143</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H31">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I31">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J31">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>19.33471444911067</v>
+        <v>30.0117856938651</v>
       </c>
       <c r="R31">
-        <v>174.012430041996</v>
+        <v>270.106071244786</v>
       </c>
       <c r="S31">
-        <v>0.0002630599577628481</v>
+        <v>0.0002603457084527303</v>
       </c>
       <c r="T31">
-        <v>0.0002630599577628481</v>
+        <v>0.0002603457084527303</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H32">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>11.03685066839722</v>
+        <v>1.028299170066556</v>
       </c>
       <c r="R32">
-        <v>99.33165601557499</v>
+        <v>9.254692530599002</v>
       </c>
       <c r="S32">
-        <v>0.0001501627282008801</v>
+        <v>8.920271478116575E-06</v>
       </c>
       <c r="T32">
-        <v>0.0001501627282008801</v>
+        <v>8.920271478116575E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H33">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>39.04400195997778</v>
+        <v>2.198136641462222</v>
       </c>
       <c r="R33">
-        <v>351.3960176398</v>
+        <v>19.78322977316</v>
       </c>
       <c r="S33">
-        <v>0.000531216198383356</v>
+        <v>1.90683569126768E-05</v>
       </c>
       <c r="T33">
-        <v>0.000531216198383356</v>
+        <v>1.90683569126768E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H34">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>15.26864889997889</v>
+        <v>1.414708549990444</v>
       </c>
       <c r="R34">
-        <v>137.41784009981</v>
+        <v>12.732376949914</v>
       </c>
       <c r="S34">
-        <v>0.0002077387874176208</v>
+        <v>1.227228874210861E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002077387874176209</v>
+        <v>1.227228874210861E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H35">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>4.058627707392223</v>
+        <v>0.2051662668457778</v>
       </c>
       <c r="R35">
-        <v>36.52764936653</v>
+        <v>1.846496401612</v>
       </c>
       <c r="S35">
-        <v>5.521997421228178E-05</v>
+        <v>1.779772707876047E-06</v>
       </c>
       <c r="T35">
-        <v>5.521997421228178E-05</v>
+        <v>1.779772707876048E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H36">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>11.45927468927</v>
+        <v>0.7784180445482223</v>
       </c>
       <c r="R36">
-        <v>103.13347220343</v>
+        <v>7.005762400934</v>
       </c>
       <c r="S36">
-        <v>0.000155910050995912</v>
+        <v>6.75260710400589E-06</v>
       </c>
       <c r="T36">
-        <v>0.000155910050995912</v>
+        <v>6.75260710400589E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H37">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>11.29884681966444</v>
+        <v>0.9921495443478887</v>
       </c>
       <c r="R37">
-        <v>101.68962137698</v>
+        <v>8.929345899130999</v>
       </c>
       <c r="S37">
-        <v>0.0001537273371671922</v>
+        <v>8.606681343426549E-06</v>
       </c>
       <c r="T37">
-        <v>0.0001537273371671923</v>
+        <v>8.606681343426549E-06</v>
       </c>
     </row>
   </sheetData>
